--- a/TestCase - Copy.xlsx
+++ b/TestCase - Copy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FE40193-3265-46EF-A3FB-8B56D8C9DE88}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12EFD6-427E-4F89-B5CB-31E939E7A92A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>value</t>
   </si>
@@ -50,16 +50,10 @@
     <t>Login In Application</t>
   </si>
   <si>
-    <t>resetButton</t>
-  </si>
-  <si>
     <t>mgr123</t>
   </si>
   <si>
     <t>mgr!23</t>
-  </si>
-  <si>
-    <t>Scenario1</t>
   </si>
   <si>
     <t>Locator Strategy</t>
@@ -84,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,12 +88,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,11 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,21 +481,21 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -516,7 +503,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -527,7 +514,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -538,11 +525,11 @@
         <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -553,84 +540,21 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
